--- a/template.xlsx
+++ b/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="87">
   <si>
     <t>no</t>
   </si>
@@ -93,13 +93,205 @@
   </si>
   <si>
     <t>IPA</t>
+  </si>
+  <si>
+    <t>ADISTY FRERY L</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADYATMA MELGIDE </t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>AISYA MAHARANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARYA KIRANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AULIA RAHMAN RAMLI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUZHACY INTANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZI FADHLUR ROHMAN </t>
+  </si>
+  <si>
+    <t>DEAZ SALSABILLAH SYAFITRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWI OLIVIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWI SEPRINA WULANDARI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIZ AHMAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERRY ALMIDI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALIMA SUMARNI MARINTAN Br. SIHOMBING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANIFA KHAIRUNNISA NASRY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEREMIA OKTAVIANUS SITUMORANG </t>
+  </si>
+  <si>
+    <t>KHANAYA ALIFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. NAUFAL PUTRA FIJAI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINA JULIANTI Br. MANURUNG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYDIANA SAFITRI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELATI DWI RAHMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMAD FIRDAUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMAD HAFIZH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NABILA KHAIRUNNISA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAUFAL RAFIF PRIATNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAZETTA JOHAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAISYA HANDALANI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STELLA ANDRIANI RIZKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINA APRILIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAHYU RAMADHAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILLY DWI ANDIKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOEL TANTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUNIAMAN ZEGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANISA AZHARA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNANDA SALSA BILLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNISA NUR ZANNAH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AULYA FIQRY NAGASABANDI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESDINDA SARI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINI ANGGRAINI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDU ARMAN WATUHU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAJRIN PUTRA MUSAF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMFALA MUTIARA ADHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEVIN KURNIAWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. HARYA VIQRI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. IHCSAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. SAH RAHUL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. SHOLEH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARDIAN PUTRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMAD AZMIY RIZAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMAD IQHWAL FAJRI </t>
+  </si>
+  <si>
+    <t>NADYA ZAHARA PUTRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANDA RIA LESTARI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAOMY OKTAVIA SILABAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NINDI RAHMADIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUR'AINI </t>
+  </si>
+  <si>
+    <t>PUTRI NATALIA SIMAJUNTAK</t>
+  </si>
+  <si>
+    <t>RANIA ERWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIAND SANJAYA </t>
+  </si>
+  <si>
+    <t>RINI ROHANI OPPUSUNGGU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIVO MAHARDIKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIZQI ALDARYSYAH </t>
+  </si>
+  <si>
+    <t>SHADIQ HASSAN AL-RASYIQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRISNUGRAHA </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +299,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,11 +350,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,6 +376,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +701,7 @@
     <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -544,7 +795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -591,7 +842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -636,6 +887,2920 @@
       </c>
       <c r="O4" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>88.5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>91</v>
+      </c>
+      <c r="G5" s="6">
+        <v>89.5</v>
+      </c>
+      <c r="H5" s="6">
+        <v>89</v>
+      </c>
+      <c r="I5" s="6">
+        <v>86.25</v>
+      </c>
+      <c r="J5" s="6">
+        <v>88</v>
+      </c>
+      <c r="K5" s="6">
+        <v>87.5</v>
+      </c>
+      <c r="L5" s="6">
+        <v>88</v>
+      </c>
+      <c r="M5" s="6">
+        <v>89</v>
+      </c>
+      <c r="N5" s="6">
+        <v>90</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="5">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10">
+        <v>85.75</v>
+      </c>
+      <c r="F6" s="10">
+        <v>89</v>
+      </c>
+      <c r="G6" s="10">
+        <v>81</v>
+      </c>
+      <c r="H6" s="10">
+        <v>75</v>
+      </c>
+      <c r="I6" s="10">
+        <v>81.25</v>
+      </c>
+      <c r="J6" s="10">
+        <v>77</v>
+      </c>
+      <c r="K6" s="10">
+        <v>84</v>
+      </c>
+      <c r="L6" s="10">
+        <v>85</v>
+      </c>
+      <c r="M6" s="10">
+        <v>80</v>
+      </c>
+      <c r="N6" s="10">
+        <v>69</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="9">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10">
+        <v>91</v>
+      </c>
+      <c r="F7" s="10">
+        <v>87</v>
+      </c>
+      <c r="G7" s="10">
+        <v>88.5</v>
+      </c>
+      <c r="H7" s="10">
+        <v>87</v>
+      </c>
+      <c r="I7" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="J7" s="10">
+        <v>82</v>
+      </c>
+      <c r="K7" s="10">
+        <v>88</v>
+      </c>
+      <c r="L7" s="10">
+        <v>87</v>
+      </c>
+      <c r="M7" s="10">
+        <v>85</v>
+      </c>
+      <c r="N7" s="10">
+        <v>83</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10">
+        <v>87.75</v>
+      </c>
+      <c r="F8" s="10">
+        <v>87</v>
+      </c>
+      <c r="G8" s="10">
+        <v>79</v>
+      </c>
+      <c r="H8" s="10">
+        <v>85</v>
+      </c>
+      <c r="I8" s="10">
+        <v>80.25</v>
+      </c>
+      <c r="J8" s="10">
+        <v>80</v>
+      </c>
+      <c r="K8" s="10">
+        <v>78.75</v>
+      </c>
+      <c r="L8" s="10">
+        <v>80</v>
+      </c>
+      <c r="M8" s="10">
+        <v>83.75</v>
+      </c>
+      <c r="N8" s="10">
+        <v>84</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="9">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="10">
+        <v>79.75</v>
+      </c>
+      <c r="F9" s="10">
+        <v>87</v>
+      </c>
+      <c r="G9" s="10">
+        <v>79.5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>86</v>
+      </c>
+      <c r="I9" s="10">
+        <v>79</v>
+      </c>
+      <c r="J9" s="10">
+        <v>85</v>
+      </c>
+      <c r="K9" s="10">
+        <v>82</v>
+      </c>
+      <c r="L9" s="10">
+        <v>86</v>
+      </c>
+      <c r="M9" s="10">
+        <v>85.25</v>
+      </c>
+      <c r="N9" s="10">
+        <v>87</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="9">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10">
+        <v>90.75</v>
+      </c>
+      <c r="F10" s="10">
+        <v>93</v>
+      </c>
+      <c r="G10" s="10">
+        <v>92</v>
+      </c>
+      <c r="H10" s="10">
+        <v>91</v>
+      </c>
+      <c r="I10" s="10">
+        <v>89.5</v>
+      </c>
+      <c r="J10" s="10">
+        <v>88</v>
+      </c>
+      <c r="K10" s="10">
+        <v>89.75</v>
+      </c>
+      <c r="L10" s="10">
+        <v>91</v>
+      </c>
+      <c r="M10" s="10">
+        <v>92</v>
+      </c>
+      <c r="N10" s="10">
+        <v>90</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="9">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="10">
+        <v>84.75</v>
+      </c>
+      <c r="F11" s="10">
+        <v>89.2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>82.75</v>
+      </c>
+      <c r="H11" s="10">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="I11" s="10">
+        <v>78.12</v>
+      </c>
+      <c r="J11" s="10">
+        <v>68</v>
+      </c>
+      <c r="K11" s="10">
+        <v>79.5</v>
+      </c>
+      <c r="L11" s="10">
+        <v>84.4</v>
+      </c>
+      <c r="M11" s="10">
+        <v>83</v>
+      </c>
+      <c r="N11" s="10">
+        <v>86</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10">
+        <v>85.25</v>
+      </c>
+      <c r="F12" s="10">
+        <v>86</v>
+      </c>
+      <c r="G12" s="10">
+        <v>91.75</v>
+      </c>
+      <c r="H12" s="10">
+        <v>92</v>
+      </c>
+      <c r="I12" s="10">
+        <v>86.75</v>
+      </c>
+      <c r="J12" s="10">
+        <v>85</v>
+      </c>
+      <c r="K12" s="10">
+        <v>87.5</v>
+      </c>
+      <c r="L12" s="10">
+        <v>88</v>
+      </c>
+      <c r="M12" s="10">
+        <v>83.75</v>
+      </c>
+      <c r="N12" s="10">
+        <v>82</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="9">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="10">
+        <v>86.75</v>
+      </c>
+      <c r="F13" s="10">
+        <v>93</v>
+      </c>
+      <c r="G13" s="10">
+        <v>86.5</v>
+      </c>
+      <c r="H13" s="10">
+        <v>85</v>
+      </c>
+      <c r="I13" s="10">
+        <v>87.25</v>
+      </c>
+      <c r="J13" s="10">
+        <v>80</v>
+      </c>
+      <c r="K13" s="10">
+        <v>87</v>
+      </c>
+      <c r="L13" s="10">
+        <v>86</v>
+      </c>
+      <c r="M13" s="10">
+        <v>86.25</v>
+      </c>
+      <c r="N13" s="10">
+        <v>88</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="9">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="10">
+        <v>87</v>
+      </c>
+      <c r="F14" s="10">
+        <v>90.03</v>
+      </c>
+      <c r="G14" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="H14" s="10">
+        <v>85.3</v>
+      </c>
+      <c r="I14" s="10">
+        <v>91.5</v>
+      </c>
+      <c r="J14" s="10">
+        <v>90.13</v>
+      </c>
+      <c r="K14" s="10">
+        <v>84</v>
+      </c>
+      <c r="L14" s="10">
+        <v>85.77</v>
+      </c>
+      <c r="M14" s="10">
+        <v>84.5</v>
+      </c>
+      <c r="N14" s="10">
+        <v>86.65</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="9">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10">
+        <v>86.75</v>
+      </c>
+      <c r="F15" s="10">
+        <v>95</v>
+      </c>
+      <c r="G15" s="10">
+        <v>91.5</v>
+      </c>
+      <c r="H15" s="10">
+        <v>92</v>
+      </c>
+      <c r="I15" s="10">
+        <v>83.25</v>
+      </c>
+      <c r="J15" s="10">
+        <v>86</v>
+      </c>
+      <c r="K15" s="10">
+        <v>85</v>
+      </c>
+      <c r="L15" s="10">
+        <v>88</v>
+      </c>
+      <c r="M15" s="10">
+        <v>84.75</v>
+      </c>
+      <c r="N15" s="10">
+        <v>87</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="9">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="10">
+        <v>82.75</v>
+      </c>
+      <c r="F16" s="10">
+        <v>85</v>
+      </c>
+      <c r="G16" s="10">
+        <v>84.25</v>
+      </c>
+      <c r="H16" s="10">
+        <v>82</v>
+      </c>
+      <c r="I16" s="10">
+        <v>81</v>
+      </c>
+      <c r="J16" s="10">
+        <v>82</v>
+      </c>
+      <c r="K16" s="10">
+        <v>81.25</v>
+      </c>
+      <c r="L16" s="10">
+        <v>80</v>
+      </c>
+      <c r="M16" s="10">
+        <v>82</v>
+      </c>
+      <c r="N16" s="10">
+        <v>85</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="10">
+        <v>90</v>
+      </c>
+      <c r="F17" s="10">
+        <v>90</v>
+      </c>
+      <c r="G17" s="10">
+        <v>92</v>
+      </c>
+      <c r="H17" s="10">
+        <v>94</v>
+      </c>
+      <c r="I17" s="10">
+        <v>92</v>
+      </c>
+      <c r="J17" s="10">
+        <v>90</v>
+      </c>
+      <c r="K17" s="10">
+        <v>89</v>
+      </c>
+      <c r="L17" s="10">
+        <v>82</v>
+      </c>
+      <c r="M17" s="10">
+        <v>91</v>
+      </c>
+      <c r="N17" s="10">
+        <v>88</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="9">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="10">
+        <v>85</v>
+      </c>
+      <c r="F18" s="10">
+        <v>81</v>
+      </c>
+      <c r="G18" s="10">
+        <v>85</v>
+      </c>
+      <c r="H18" s="10">
+        <v>80</v>
+      </c>
+      <c r="I18" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="J18" s="10">
+        <v>81</v>
+      </c>
+      <c r="K18" s="10">
+        <v>86.5</v>
+      </c>
+      <c r="L18" s="10">
+        <v>87</v>
+      </c>
+      <c r="M18" s="10">
+        <v>86.75</v>
+      </c>
+      <c r="N18" s="10">
+        <v>91</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="10">
+        <v>81.2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>85</v>
+      </c>
+      <c r="G19" s="10">
+        <v>81</v>
+      </c>
+      <c r="H19" s="10">
+        <v>80</v>
+      </c>
+      <c r="I19" s="10">
+        <v>82</v>
+      </c>
+      <c r="J19" s="10">
+        <v>82</v>
+      </c>
+      <c r="K19" s="10">
+        <v>82.2</v>
+      </c>
+      <c r="L19" s="10">
+        <v>87</v>
+      </c>
+      <c r="M19" s="10">
+        <v>81.7</v>
+      </c>
+      <c r="N19" s="10">
+        <v>82</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="9">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="10">
+        <v>87.37</v>
+      </c>
+      <c r="F20" s="10">
+        <v>93</v>
+      </c>
+      <c r="G20" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="H20" s="10">
+        <v>93</v>
+      </c>
+      <c r="I20" s="10">
+        <v>85.37</v>
+      </c>
+      <c r="J20" s="10">
+        <v>86</v>
+      </c>
+      <c r="K20" s="10">
+        <v>86.77</v>
+      </c>
+      <c r="L20" s="10">
+        <v>87</v>
+      </c>
+      <c r="M20" s="10">
+        <v>86</v>
+      </c>
+      <c r="N20" s="10">
+        <v>92</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="9">
+        <v>96</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="10">
+        <v>83</v>
+      </c>
+      <c r="F21" s="10">
+        <v>80</v>
+      </c>
+      <c r="G21" s="10">
+        <v>81.5</v>
+      </c>
+      <c r="H21" s="10">
+        <v>78</v>
+      </c>
+      <c r="I21" s="10">
+        <v>76.5</v>
+      </c>
+      <c r="J21" s="10">
+        <v>75</v>
+      </c>
+      <c r="K21" s="10">
+        <v>79.25</v>
+      </c>
+      <c r="L21" s="10">
+        <v>79</v>
+      </c>
+      <c r="M21" s="10">
+        <v>84.25</v>
+      </c>
+      <c r="N21" s="10">
+        <v>83</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="9">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="10">
+        <v>83</v>
+      </c>
+      <c r="F22" s="10">
+        <v>92</v>
+      </c>
+      <c r="G22" s="10">
+        <v>85</v>
+      </c>
+      <c r="H22" s="10">
+        <v>86</v>
+      </c>
+      <c r="I22" s="10">
+        <v>85</v>
+      </c>
+      <c r="J22" s="10">
+        <v>75</v>
+      </c>
+      <c r="K22" s="10">
+        <v>85</v>
+      </c>
+      <c r="L22" s="10">
+        <v>86</v>
+      </c>
+      <c r="M22" s="10">
+        <v>90</v>
+      </c>
+      <c r="N22" s="10">
+        <v>81</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="9">
+        <v>96</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="10">
+        <v>84.25</v>
+      </c>
+      <c r="F23" s="10">
+        <v>86</v>
+      </c>
+      <c r="G23" s="10">
+        <v>79.75</v>
+      </c>
+      <c r="H23" s="10">
+        <v>83</v>
+      </c>
+      <c r="I23" s="10">
+        <v>76</v>
+      </c>
+      <c r="J23" s="10">
+        <v>82</v>
+      </c>
+      <c r="K23" s="10">
+        <v>79.75</v>
+      </c>
+      <c r="L23" s="10">
+        <v>81</v>
+      </c>
+      <c r="M23" s="10">
+        <v>79.75</v>
+      </c>
+      <c r="N23" s="10">
+        <v>82</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="9">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="10">
+        <v>85</v>
+      </c>
+      <c r="F24" s="10">
+        <v>89.35</v>
+      </c>
+      <c r="G24" s="10">
+        <v>85.5</v>
+      </c>
+      <c r="H24" s="10">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="I24" s="10">
+        <v>86.75</v>
+      </c>
+      <c r="J24" s="10">
+        <v>80.849999999999994</v>
+      </c>
+      <c r="K24" s="10">
+        <v>83.25</v>
+      </c>
+      <c r="L24" s="10">
+        <v>79.8</v>
+      </c>
+      <c r="M24" s="10">
+        <v>87</v>
+      </c>
+      <c r="N24" s="10">
+        <v>81.78</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="9">
+        <v>104</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="10">
+        <v>86.5</v>
+      </c>
+      <c r="F25" s="10">
+        <v>87</v>
+      </c>
+      <c r="G25" s="10">
+        <v>90.75</v>
+      </c>
+      <c r="H25" s="10">
+        <v>88</v>
+      </c>
+      <c r="I25" s="10">
+        <v>82.75</v>
+      </c>
+      <c r="J25" s="10">
+        <v>82</v>
+      </c>
+      <c r="K25" s="10">
+        <v>84</v>
+      </c>
+      <c r="L25" s="10">
+        <v>87</v>
+      </c>
+      <c r="M25" s="10">
+        <v>90.5</v>
+      </c>
+      <c r="N25" s="10">
+        <v>87</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="9">
+        <v>91</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="10">
+        <v>85.75</v>
+      </c>
+      <c r="F26" s="10">
+        <v>90.5</v>
+      </c>
+      <c r="G26" s="10">
+        <v>85.09</v>
+      </c>
+      <c r="H26" s="10">
+        <v>84.5</v>
+      </c>
+      <c r="I26" s="10">
+        <v>84.33</v>
+      </c>
+      <c r="J26" s="10">
+        <v>80</v>
+      </c>
+      <c r="K26" s="10">
+        <v>86.75</v>
+      </c>
+      <c r="L26" s="10">
+        <v>92.5</v>
+      </c>
+      <c r="M26" s="10">
+        <v>86.25</v>
+      </c>
+      <c r="N26" s="10">
+        <v>80</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="9">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="10">
+        <v>86.5</v>
+      </c>
+      <c r="F27" s="10">
+        <v>87</v>
+      </c>
+      <c r="G27" s="10">
+        <v>86.75</v>
+      </c>
+      <c r="H27" s="10">
+        <v>89.5</v>
+      </c>
+      <c r="I27" s="10">
+        <v>88.25</v>
+      </c>
+      <c r="J27" s="10">
+        <v>90</v>
+      </c>
+      <c r="K27" s="10">
+        <v>88</v>
+      </c>
+      <c r="L27" s="10">
+        <v>87</v>
+      </c>
+      <c r="M27" s="10">
+        <v>85</v>
+      </c>
+      <c r="N27" s="10">
+        <v>89</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="10">
+        <v>82</v>
+      </c>
+      <c r="F28" s="10">
+        <v>79</v>
+      </c>
+      <c r="G28" s="10">
+        <v>81</v>
+      </c>
+      <c r="H28" s="10">
+        <v>81</v>
+      </c>
+      <c r="I28" s="10">
+        <v>79</v>
+      </c>
+      <c r="J28" s="10">
+        <v>71</v>
+      </c>
+      <c r="K28" s="10">
+        <v>81</v>
+      </c>
+      <c r="L28" s="10">
+        <v>82</v>
+      </c>
+      <c r="M28" s="10">
+        <v>81</v>
+      </c>
+      <c r="N28" s="10">
+        <v>80</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="9">
+        <v>87</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="10">
+        <v>87</v>
+      </c>
+      <c r="F29" s="10">
+        <v>88.23</v>
+      </c>
+      <c r="G29" s="10">
+        <v>82.75</v>
+      </c>
+      <c r="H29" s="10">
+        <v>85.8</v>
+      </c>
+      <c r="I29" s="10">
+        <v>81.75</v>
+      </c>
+      <c r="J29" s="10">
+        <v>83.13</v>
+      </c>
+      <c r="K29" s="10">
+        <v>83.75</v>
+      </c>
+      <c r="L29" s="10">
+        <v>85.9</v>
+      </c>
+      <c r="M29" s="10">
+        <v>87.25</v>
+      </c>
+      <c r="N29" s="10">
+        <v>86.53</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="9">
+        <v>94</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="F30" s="10">
+        <v>86</v>
+      </c>
+      <c r="G30" s="10">
+        <v>82.75</v>
+      </c>
+      <c r="H30" s="10">
+        <v>84</v>
+      </c>
+      <c r="I30" s="10">
+        <v>79.75</v>
+      </c>
+      <c r="J30" s="10">
+        <v>74</v>
+      </c>
+      <c r="K30" s="10">
+        <v>77.75</v>
+      </c>
+      <c r="L30" s="10">
+        <v>83</v>
+      </c>
+      <c r="M30" s="10">
+        <v>80.25</v>
+      </c>
+      <c r="N30" s="10">
+        <v>84</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="10">
+        <v>87</v>
+      </c>
+      <c r="F31" s="10">
+        <v>83.92</v>
+      </c>
+      <c r="G31" s="10">
+        <v>84.5</v>
+      </c>
+      <c r="H31" s="10">
+        <v>82.48</v>
+      </c>
+      <c r="I31" s="10">
+        <v>81.75</v>
+      </c>
+      <c r="J31" s="10">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="K31" s="10">
+        <v>87.75</v>
+      </c>
+      <c r="L31" s="10">
+        <v>84.43</v>
+      </c>
+      <c r="M31" s="10">
+        <v>88.75</v>
+      </c>
+      <c r="N31" s="10">
+        <v>88.45</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="10">
+        <v>81</v>
+      </c>
+      <c r="F32" s="10">
+        <v>89</v>
+      </c>
+      <c r="G32" s="10">
+        <v>84.75</v>
+      </c>
+      <c r="H32" s="10">
+        <v>89</v>
+      </c>
+      <c r="I32" s="10">
+        <v>82.75</v>
+      </c>
+      <c r="J32" s="10">
+        <v>78</v>
+      </c>
+      <c r="K32" s="10">
+        <v>85.75</v>
+      </c>
+      <c r="L32" s="10">
+        <v>89</v>
+      </c>
+      <c r="M32" s="10">
+        <v>85.75</v>
+      </c>
+      <c r="N32" s="10">
+        <v>88</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="10">
+        <v>83.75</v>
+      </c>
+      <c r="F33" s="10">
+        <v>86</v>
+      </c>
+      <c r="G33" s="10">
+        <v>84.5</v>
+      </c>
+      <c r="H33" s="10">
+        <v>88</v>
+      </c>
+      <c r="I33" s="10">
+        <v>85.5</v>
+      </c>
+      <c r="J33" s="10">
+        <v>90</v>
+      </c>
+      <c r="K33" s="10">
+        <v>85</v>
+      </c>
+      <c r="L33" s="10">
+        <v>91.5</v>
+      </c>
+      <c r="M33" s="10">
+        <v>88.75</v>
+      </c>
+      <c r="N33" s="10">
+        <v>89</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="9">
+        <v>94</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="10">
+        <v>89</v>
+      </c>
+      <c r="F34" s="10">
+        <v>91</v>
+      </c>
+      <c r="G34" s="10">
+        <v>83</v>
+      </c>
+      <c r="H34" s="10">
+        <v>88</v>
+      </c>
+      <c r="I34" s="10">
+        <v>81.75</v>
+      </c>
+      <c r="J34" s="10">
+        <v>87</v>
+      </c>
+      <c r="K34" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="L34" s="10">
+        <v>84</v>
+      </c>
+      <c r="M34" s="10">
+        <v>84.5</v>
+      </c>
+      <c r="N34" s="10">
+        <v>87</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="9">
+        <v>94</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="10">
+        <v>80.5</v>
+      </c>
+      <c r="F35" s="10">
+        <v>80</v>
+      </c>
+      <c r="G35" s="10">
+        <v>87.5</v>
+      </c>
+      <c r="H35" s="10">
+        <v>81</v>
+      </c>
+      <c r="I35" s="10">
+        <v>81.5</v>
+      </c>
+      <c r="J35" s="10">
+        <v>77</v>
+      </c>
+      <c r="K35" s="10">
+        <v>84</v>
+      </c>
+      <c r="L35" s="10">
+        <v>82</v>
+      </c>
+      <c r="M35" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="N35" s="10">
+        <v>76</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="9">
+        <v>94</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="10">
+        <v>80.75</v>
+      </c>
+      <c r="F36" s="10">
+        <v>81</v>
+      </c>
+      <c r="G36" s="10">
+        <v>77.5</v>
+      </c>
+      <c r="H36" s="10">
+        <v>77</v>
+      </c>
+      <c r="I36" s="10">
+        <v>74</v>
+      </c>
+      <c r="J36" s="10">
+        <v>71</v>
+      </c>
+      <c r="K36" s="10">
+        <v>84.25</v>
+      </c>
+      <c r="L36" s="10">
+        <v>81</v>
+      </c>
+      <c r="M36" s="10">
+        <v>88.5</v>
+      </c>
+      <c r="N36" s="10">
+        <v>76</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="9">
+        <v>85</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="6">
+        <v>79.75</v>
+      </c>
+      <c r="F37" s="6">
+        <v>86</v>
+      </c>
+      <c r="G37" s="6">
+        <v>82.25</v>
+      </c>
+      <c r="H37" s="6">
+        <v>77</v>
+      </c>
+      <c r="I37" s="6">
+        <v>79.25</v>
+      </c>
+      <c r="J37" s="6">
+        <v>81</v>
+      </c>
+      <c r="K37" s="6">
+        <v>78.75</v>
+      </c>
+      <c r="L37" s="6">
+        <v>84</v>
+      </c>
+      <c r="M37" s="6">
+        <v>83</v>
+      </c>
+      <c r="N37" s="6">
+        <v>86</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="5">
+        <v>87</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C38" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="10">
+        <v>83.75</v>
+      </c>
+      <c r="F38" s="10">
+        <v>83</v>
+      </c>
+      <c r="G38" s="10">
+        <v>88.5</v>
+      </c>
+      <c r="H38" s="10">
+        <v>86</v>
+      </c>
+      <c r="I38" s="10">
+        <v>85</v>
+      </c>
+      <c r="J38" s="10">
+        <v>81</v>
+      </c>
+      <c r="K38" s="10">
+        <v>88.25</v>
+      </c>
+      <c r="L38" s="10">
+        <v>87</v>
+      </c>
+      <c r="M38" s="10">
+        <v>86</v>
+      </c>
+      <c r="N38" s="10">
+        <v>80</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="9">
+        <v>89</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C39" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="10">
+        <v>89.25</v>
+      </c>
+      <c r="F39" s="10">
+        <v>94</v>
+      </c>
+      <c r="G39" s="10">
+        <v>88</v>
+      </c>
+      <c r="H39" s="10">
+        <v>85</v>
+      </c>
+      <c r="I39" s="10">
+        <v>89</v>
+      </c>
+      <c r="J39" s="10">
+        <v>85</v>
+      </c>
+      <c r="K39" s="10">
+        <v>88.5</v>
+      </c>
+      <c r="L39" s="10">
+        <v>87</v>
+      </c>
+      <c r="M39" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="N39" s="10">
+        <v>94</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="9">
+        <v>96</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="10">
+        <v>82</v>
+      </c>
+      <c r="F40" s="10">
+        <v>76.5</v>
+      </c>
+      <c r="G40" s="10">
+        <v>82</v>
+      </c>
+      <c r="H40" s="10">
+        <v>71</v>
+      </c>
+      <c r="I40" s="10">
+        <v>79</v>
+      </c>
+      <c r="J40" s="10">
+        <v>69.5</v>
+      </c>
+      <c r="K40" s="10">
+        <v>80</v>
+      </c>
+      <c r="L40" s="10">
+        <v>70</v>
+      </c>
+      <c r="M40" s="10">
+        <v>82</v>
+      </c>
+      <c r="N40" s="10">
+        <v>71</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="9">
+        <v>87</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C41" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="10">
+        <v>80.5</v>
+      </c>
+      <c r="F41" s="10">
+        <v>80</v>
+      </c>
+      <c r="G41" s="10">
+        <v>80.75</v>
+      </c>
+      <c r="H41" s="10">
+        <v>81</v>
+      </c>
+      <c r="I41" s="10">
+        <v>76.75</v>
+      </c>
+      <c r="J41" s="10">
+        <v>77</v>
+      </c>
+      <c r="K41" s="10">
+        <v>77.5</v>
+      </c>
+      <c r="L41" s="10">
+        <v>85</v>
+      </c>
+      <c r="M41" s="10">
+        <v>77.75</v>
+      </c>
+      <c r="N41" s="10">
+        <v>85</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="9">
+        <v>91</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C42" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="10">
+        <v>78.75</v>
+      </c>
+      <c r="F42" s="10">
+        <v>89</v>
+      </c>
+      <c r="G42" s="10">
+        <v>82</v>
+      </c>
+      <c r="H42" s="10">
+        <v>91</v>
+      </c>
+      <c r="I42" s="10">
+        <v>76.75</v>
+      </c>
+      <c r="J42" s="10">
+        <v>78</v>
+      </c>
+      <c r="K42" s="10">
+        <v>82.25</v>
+      </c>
+      <c r="L42" s="10">
+        <v>83</v>
+      </c>
+      <c r="M42" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="N42" s="10">
+        <v>91</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="9">
+        <v>91</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="10">
+        <v>87.5</v>
+      </c>
+      <c r="F43" s="10">
+        <v>97</v>
+      </c>
+      <c r="G43" s="10">
+        <v>86.25</v>
+      </c>
+      <c r="H43" s="10">
+        <v>85</v>
+      </c>
+      <c r="I43" s="10">
+        <v>84.25</v>
+      </c>
+      <c r="J43" s="10">
+        <v>84</v>
+      </c>
+      <c r="K43" s="10">
+        <v>88</v>
+      </c>
+      <c r="L43" s="10">
+        <v>92</v>
+      </c>
+      <c r="M43" s="10">
+        <v>85.25</v>
+      </c>
+      <c r="N43" s="10">
+        <v>85</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="9">
+        <v>84</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C44" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="10">
+        <v>81</v>
+      </c>
+      <c r="F44" s="10">
+        <v>81</v>
+      </c>
+      <c r="G44" s="10">
+        <v>81</v>
+      </c>
+      <c r="H44" s="10">
+        <v>81</v>
+      </c>
+      <c r="I44" s="10">
+        <v>78</v>
+      </c>
+      <c r="J44" s="10">
+        <v>79</v>
+      </c>
+      <c r="K44" s="10">
+        <v>80</v>
+      </c>
+      <c r="L44" s="10">
+        <v>82</v>
+      </c>
+      <c r="M44" s="10">
+        <v>81</v>
+      </c>
+      <c r="N44" s="10">
+        <v>83</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" s="9">
+        <v>91</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="10">
+        <v>83.25</v>
+      </c>
+      <c r="F45" s="10">
+        <v>85</v>
+      </c>
+      <c r="G45" s="10">
+        <v>86</v>
+      </c>
+      <c r="H45" s="10">
+        <v>85</v>
+      </c>
+      <c r="I45" s="10">
+        <v>82.75</v>
+      </c>
+      <c r="J45" s="10">
+        <v>78</v>
+      </c>
+      <c r="K45" s="10">
+        <v>85.75</v>
+      </c>
+      <c r="L45" s="10">
+        <v>85</v>
+      </c>
+      <c r="M45" s="10">
+        <v>83.75</v>
+      </c>
+      <c r="N45" s="10">
+        <v>82</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="9">
+        <v>103</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C46" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="10">
+        <v>82</v>
+      </c>
+      <c r="F46" s="10">
+        <v>85</v>
+      </c>
+      <c r="G46" s="10">
+        <v>83</v>
+      </c>
+      <c r="H46" s="10">
+        <v>82</v>
+      </c>
+      <c r="I46" s="10">
+        <v>83</v>
+      </c>
+      <c r="J46" s="10">
+        <v>80</v>
+      </c>
+      <c r="K46" s="10">
+        <v>85.25</v>
+      </c>
+      <c r="L46" s="10">
+        <v>84</v>
+      </c>
+      <c r="M46" s="10">
+        <v>84</v>
+      </c>
+      <c r="N46" s="10">
+        <v>80</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="9">
+        <v>87</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C47" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="10">
+        <v>83</v>
+      </c>
+      <c r="F47" s="10">
+        <v>83.75</v>
+      </c>
+      <c r="G47" s="10">
+        <v>79.75</v>
+      </c>
+      <c r="H47" s="10">
+        <v>77.12</v>
+      </c>
+      <c r="I47" s="10">
+        <v>77.25</v>
+      </c>
+      <c r="J47" s="10">
+        <v>72.8</v>
+      </c>
+      <c r="K47" s="10">
+        <v>81</v>
+      </c>
+      <c r="L47" s="10">
+        <v>77.41</v>
+      </c>
+      <c r="M47" s="10">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="N47" s="10">
+        <v>84.1</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="9">
+        <v>89</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C48" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="10">
+        <v>87.75</v>
+      </c>
+      <c r="F48" s="10">
+        <v>87</v>
+      </c>
+      <c r="G48" s="10">
+        <v>81</v>
+      </c>
+      <c r="H48" s="10">
+        <v>76</v>
+      </c>
+      <c r="I48" s="10">
+        <v>80.25</v>
+      </c>
+      <c r="J48" s="10">
+        <v>75</v>
+      </c>
+      <c r="K48" s="10">
+        <v>82</v>
+      </c>
+      <c r="L48" s="10">
+        <v>84</v>
+      </c>
+      <c r="M48" s="10">
+        <v>82</v>
+      </c>
+      <c r="N48" s="10">
+        <v>74</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C49" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="10">
+        <v>76</v>
+      </c>
+      <c r="F49" s="10">
+        <v>75</v>
+      </c>
+      <c r="G49" s="10">
+        <v>78.25</v>
+      </c>
+      <c r="H49" s="10">
+        <v>78</v>
+      </c>
+      <c r="I49" s="10">
+        <v>75</v>
+      </c>
+      <c r="J49" s="10">
+        <v>76</v>
+      </c>
+      <c r="K49" s="10">
+        <v>75</v>
+      </c>
+      <c r="L49" s="10">
+        <v>84</v>
+      </c>
+      <c r="M49" s="10">
+        <v>76</v>
+      </c>
+      <c r="N49" s="10">
+        <v>79</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="9">
+        <v>68</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="10">
+        <v>78</v>
+      </c>
+      <c r="F50" s="10">
+        <v>70</v>
+      </c>
+      <c r="G50" s="10">
+        <v>77.75</v>
+      </c>
+      <c r="H50" s="10">
+        <v>70</v>
+      </c>
+      <c r="I50" s="10">
+        <v>78.5</v>
+      </c>
+      <c r="J50" s="10">
+        <v>70</v>
+      </c>
+      <c r="K50" s="10">
+        <v>78.5</v>
+      </c>
+      <c r="L50" s="10">
+        <v>71</v>
+      </c>
+      <c r="M50" s="10">
+        <v>80.25</v>
+      </c>
+      <c r="N50" s="10">
+        <v>71</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C51" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="10">
+        <v>80.25</v>
+      </c>
+      <c r="F51" s="10">
+        <v>86</v>
+      </c>
+      <c r="G51" s="10">
+        <v>79.75</v>
+      </c>
+      <c r="H51" s="10">
+        <v>86</v>
+      </c>
+      <c r="I51" s="10">
+        <v>77.75</v>
+      </c>
+      <c r="J51" s="10">
+        <v>77</v>
+      </c>
+      <c r="K51" s="10">
+        <v>76.75</v>
+      </c>
+      <c r="L51" s="10">
+        <v>81</v>
+      </c>
+      <c r="M51" s="10">
+        <v>83.75</v>
+      </c>
+      <c r="N51" s="10">
+        <v>90</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="9">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C52" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="10">
+        <v>84.4</v>
+      </c>
+      <c r="F52" s="10">
+        <v>79.5</v>
+      </c>
+      <c r="G52" s="10">
+        <v>90</v>
+      </c>
+      <c r="H52" s="10">
+        <v>79</v>
+      </c>
+      <c r="I52" s="10">
+        <v>82.6</v>
+      </c>
+      <c r="J52" s="10">
+        <v>75</v>
+      </c>
+      <c r="K52" s="10">
+        <v>83.9</v>
+      </c>
+      <c r="L52" s="10">
+        <v>82</v>
+      </c>
+      <c r="M52" s="10">
+        <v>92</v>
+      </c>
+      <c r="N52" s="10">
+        <v>81</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="9">
+        <v>104</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C53" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="10">
+        <v>81.75</v>
+      </c>
+      <c r="F53" s="10">
+        <v>80</v>
+      </c>
+      <c r="G53" s="10">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="H53" s="10">
+        <v>82</v>
+      </c>
+      <c r="I53" s="10">
+        <v>77.5</v>
+      </c>
+      <c r="J53" s="10">
+        <v>79</v>
+      </c>
+      <c r="K53" s="10">
+        <v>78.75</v>
+      </c>
+      <c r="L53" s="10">
+        <v>85</v>
+      </c>
+      <c r="M53" s="10">
+        <v>77.25</v>
+      </c>
+      <c r="N53" s="10">
+        <v>79</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="9">
+        <v>89</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C54" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="10">
+        <v>80.25</v>
+      </c>
+      <c r="F54" s="10">
+        <v>86</v>
+      </c>
+      <c r="G54" s="10">
+        <v>82</v>
+      </c>
+      <c r="H54" s="10">
+        <v>87.5</v>
+      </c>
+      <c r="I54" s="10">
+        <v>78.75</v>
+      </c>
+      <c r="J54" s="10">
+        <v>76</v>
+      </c>
+      <c r="K54" s="10">
+        <v>78.5</v>
+      </c>
+      <c r="L54" s="10">
+        <v>85</v>
+      </c>
+      <c r="M54" s="10">
+        <v>82.25</v>
+      </c>
+      <c r="N54" s="10">
+        <v>78</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C55" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="10">
+        <v>81</v>
+      </c>
+      <c r="F55" s="10">
+        <v>84</v>
+      </c>
+      <c r="G55" s="10">
+        <v>84.75</v>
+      </c>
+      <c r="H55" s="10">
+        <v>80</v>
+      </c>
+      <c r="I55" s="10">
+        <v>79.25</v>
+      </c>
+      <c r="J55" s="10">
+        <v>78</v>
+      </c>
+      <c r="K55" s="10">
+        <v>79.25</v>
+      </c>
+      <c r="L55" s="10">
+        <v>80</v>
+      </c>
+      <c r="M55" s="10">
+        <v>82</v>
+      </c>
+      <c r="N55" s="10">
+        <v>83</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="9">
+        <v>96</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C56" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="10">
+        <v>86</v>
+      </c>
+      <c r="F56" s="10">
+        <v>92</v>
+      </c>
+      <c r="G56" s="10">
+        <v>88</v>
+      </c>
+      <c r="H56" s="10">
+        <v>89</v>
+      </c>
+      <c r="I56" s="10">
+        <v>78</v>
+      </c>
+      <c r="J56" s="10">
+        <v>60</v>
+      </c>
+      <c r="K56" s="10">
+        <v>88</v>
+      </c>
+      <c r="L56" s="10">
+        <v>85</v>
+      </c>
+      <c r="M56" s="10">
+        <v>85</v>
+      </c>
+      <c r="N56" s="10">
+        <v>74</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C57" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="10">
+        <v>80</v>
+      </c>
+      <c r="F57" s="10">
+        <v>86</v>
+      </c>
+      <c r="G57" s="10">
+        <v>83.25</v>
+      </c>
+      <c r="H57" s="10">
+        <v>88</v>
+      </c>
+      <c r="I57" s="10">
+        <v>77.5</v>
+      </c>
+      <c r="J57" s="10">
+        <v>78</v>
+      </c>
+      <c r="K57" s="10">
+        <v>85.75</v>
+      </c>
+      <c r="L57" s="10">
+        <v>85</v>
+      </c>
+      <c r="M57" s="10">
+        <v>79.5</v>
+      </c>
+      <c r="N57" s="10">
+        <v>93</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="9">
+        <v>82</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C58" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="10">
+        <v>82</v>
+      </c>
+      <c r="F58" s="10">
+        <v>85</v>
+      </c>
+      <c r="G58" s="10">
+        <v>82</v>
+      </c>
+      <c r="H58" s="10">
+        <v>87</v>
+      </c>
+      <c r="I58" s="10">
+        <v>78</v>
+      </c>
+      <c r="J58" s="10">
+        <v>79</v>
+      </c>
+      <c r="K58" s="10">
+        <v>86</v>
+      </c>
+      <c r="L58" s="10">
+        <v>88</v>
+      </c>
+      <c r="M58" s="10">
+        <v>88</v>
+      </c>
+      <c r="N58" s="10">
+        <v>84</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="9">
+        <v>86</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C59" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="10">
+        <v>84</v>
+      </c>
+      <c r="F59" s="10">
+        <v>84</v>
+      </c>
+      <c r="G59" s="10">
+        <v>82</v>
+      </c>
+      <c r="H59" s="10">
+        <v>84</v>
+      </c>
+      <c r="I59" s="10">
+        <v>80</v>
+      </c>
+      <c r="J59" s="10">
+        <v>80</v>
+      </c>
+      <c r="K59" s="10">
+        <v>82</v>
+      </c>
+      <c r="L59" s="10">
+        <v>83</v>
+      </c>
+      <c r="M59" s="10">
+        <v>87</v>
+      </c>
+      <c r="N59" s="10">
+        <v>86</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="9">
+        <v>99</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C60" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="10">
+        <v>83</v>
+      </c>
+      <c r="F60" s="10">
+        <v>83</v>
+      </c>
+      <c r="G60" s="10">
+        <v>82</v>
+      </c>
+      <c r="H60" s="10">
+        <v>82</v>
+      </c>
+      <c r="I60" s="10">
+        <v>75</v>
+      </c>
+      <c r="J60" s="10">
+        <v>75</v>
+      </c>
+      <c r="K60" s="10">
+        <v>80</v>
+      </c>
+      <c r="L60" s="10">
+        <v>80</v>
+      </c>
+      <c r="M60" s="10">
+        <v>87</v>
+      </c>
+      <c r="N60" s="10">
+        <v>87</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="9">
+        <v>86</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C61" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="10">
+        <v>75.75</v>
+      </c>
+      <c r="F61" s="10">
+        <v>77</v>
+      </c>
+      <c r="G61" s="10">
+        <v>78.75</v>
+      </c>
+      <c r="H61" s="10">
+        <v>82</v>
+      </c>
+      <c r="I61" s="10">
+        <v>75.75</v>
+      </c>
+      <c r="J61" s="10">
+        <v>77</v>
+      </c>
+      <c r="K61" s="10">
+        <v>76</v>
+      </c>
+      <c r="L61" s="10">
+        <v>77</v>
+      </c>
+      <c r="M61" s="10">
+        <v>75</v>
+      </c>
+      <c r="N61" s="10">
+        <v>78</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="9">
+        <v>87</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C62" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="10">
+        <v>84</v>
+      </c>
+      <c r="F62" s="10">
+        <v>89</v>
+      </c>
+      <c r="G62" s="10">
+        <v>85</v>
+      </c>
+      <c r="H62" s="10">
+        <v>88</v>
+      </c>
+      <c r="I62" s="10">
+        <v>81</v>
+      </c>
+      <c r="J62" s="10">
+        <v>93</v>
+      </c>
+      <c r="K62" s="10">
+        <v>88</v>
+      </c>
+      <c r="L62" s="10">
+        <v>92</v>
+      </c>
+      <c r="M62" s="10">
+        <v>89</v>
+      </c>
+      <c r="N62" s="10">
+        <v>88</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="9">
+        <v>104</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C63" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="10">
+        <v>79.75</v>
+      </c>
+      <c r="F63" s="10">
+        <v>83</v>
+      </c>
+      <c r="G63" s="10">
+        <v>85</v>
+      </c>
+      <c r="H63" s="10">
+        <v>87</v>
+      </c>
+      <c r="I63" s="10">
+        <v>75.5</v>
+      </c>
+      <c r="J63" s="10">
+        <v>71</v>
+      </c>
+      <c r="K63" s="10">
+        <v>73.5</v>
+      </c>
+      <c r="L63" s="10">
+        <v>78</v>
+      </c>
+      <c r="M63" s="10">
+        <v>79.75</v>
+      </c>
+      <c r="N63" s="10">
+        <v>76</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" s="9">
+        <v>114</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C64" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="10">
+        <v>79.25</v>
+      </c>
+      <c r="F64" s="10">
+        <v>86</v>
+      </c>
+      <c r="G64" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="H64" s="10">
+        <v>85</v>
+      </c>
+      <c r="I64" s="10">
+        <v>76.5</v>
+      </c>
+      <c r="J64" s="10">
+        <v>78</v>
+      </c>
+      <c r="K64" s="10">
+        <v>83</v>
+      </c>
+      <c r="L64" s="10">
+        <v>86</v>
+      </c>
+      <c r="M64" s="10">
+        <v>80</v>
+      </c>
+      <c r="N64" s="10">
+        <v>87</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="9">
+        <v>87</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="C65" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="10">
+        <v>88.25</v>
+      </c>
+      <c r="F65" s="10">
+        <v>88.2</v>
+      </c>
+      <c r="G65" s="10">
+        <v>87.75</v>
+      </c>
+      <c r="H65" s="10">
+        <v>86.3</v>
+      </c>
+      <c r="I65" s="10">
+        <v>85.25</v>
+      </c>
+      <c r="J65" s="10">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="K65" s="10">
+        <v>84.5</v>
+      </c>
+      <c r="L65" s="10">
+        <v>83.6</v>
+      </c>
+      <c r="M65" s="10">
+        <v>85.75</v>
+      </c>
+      <c r="N65" s="10">
+        <v>82.3</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="9">
+        <v>87</v>
+      </c>
+      <c r="Q65" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C66" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="10">
+        <v>86</v>
+      </c>
+      <c r="F66" s="10">
+        <v>84.4</v>
+      </c>
+      <c r="G66" s="10">
+        <v>79.75</v>
+      </c>
+      <c r="H66" s="10">
+        <v>84.03</v>
+      </c>
+      <c r="I66" s="10">
+        <v>79.25</v>
+      </c>
+      <c r="J66" s="10">
+        <v>86.27</v>
+      </c>
+      <c r="K66" s="10">
+        <v>81.5</v>
+      </c>
+      <c r="L66" s="10">
+        <v>84.8</v>
+      </c>
+      <c r="M66" s="10">
+        <v>81.5</v>
+      </c>
+      <c r="N66" s="10">
+        <v>83.73</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="9">
+        <v>91</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
